--- a/Team-Coordination_team18_sec005.xlsx
+++ b/Team-Coordination_team18_sec005.xlsx
@@ -1,143 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16080"/>
   </bookViews>
   <sheets>
-    <sheet name="Team18-April 22, 2014" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Team18-April 22, 2014" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A17">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">For more information go to:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-http://www.nngroup.com/articles/ten-usability-heuristics
-or
-http://designingwebinterfaces.com/6-tips-for-a-great-flex-ux-part-5</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A31">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">How to write a learning objective:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Use verbs
-Write in terms of the learner
-Include ONE objective per line
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Example:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Predict the force needed to brake the structure</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C17">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">List AND explain why</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C39">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">This is an approximation in hours of how much this task is going to take (or has taken)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D9">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -149,244 +40,11 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D31">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Write the big idea involved with this LObj
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D39">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Choose from:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-0 (Lowes priority)
-1 (Low priority)
-2 (High priority)
-3 (Highest priority)</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E31">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Identify:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">What the user is expected to know about this learning objective
-How the application is going to get that information
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E39">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">What tasks need to be done </t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <i val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">before</t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> starting (S) of </t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <i val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">before</t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> finishing (F) this one?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Example for Tsk10:
-Tsk1(S), Tsk6(F) 
-It means that task 1 needs to be done </t>
-        </r>
-        <r>
-          <rPr>
-            <i val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">before</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> starting task 10 and task 6 needs to be done </t>
-        </r>
-        <r>
-          <rPr>
-            <i val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">before</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> finishing task 10.</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F17">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">List AND explain why</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F39">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Include mm/dd.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-If you haven't started or finished include predicted dates</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G9">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -398,59 +56,11 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G31">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">What GUI features are linked with this objective?
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G39">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Percentage of task completion
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H39">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Complete Name of the team member responsible
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I9">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -462,124 +72,11 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="I17">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Choose from:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Achieved
-Being Developed
-Not Addressed</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I31">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Include at Least one Why, one How, one What.
-Examples:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-What is the range of nano-scale?
-How does water molecules are self-assembled?
-Why Gold is better conductor than aluminum?</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J17">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Paste an image or data
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-(Text explaining is not acceptable)</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J39">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Paste an image or data
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-(Text explaining is not acceptable)</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K9">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -606,26 +103,11 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="K31">
+    <comment ref="L9" authorId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">How does the learner knows she or he has learned?</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L9">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -650,12 +132,534 @@
         </r>
       </text>
     </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">For more information go to:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+http://www.nngroup.com/articles/ten-usability-heuristics
+or
+http://designingwebinterfaces.com/6-tips-for-a-great-flex-ux-part-5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>List AND explain why</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>List AND explain why</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Choose from:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Achieved
+Being Developed
+Not Addressed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Paste an image or data
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(Text explaining is not acceptable)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">How to write a learning objective:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Use verbs
+Write in terms of the learner
+Include ONE objective per line
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Example:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Predict the force needed to brake the structure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Write the big idea involved with this LObj
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Identify:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">What the user is expected to know about this learning objective
+How the application is going to get that information
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">What GUI features are linked with this objective?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Include at Least one Why, one How, one What.
+Examples:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+What is the range of nano-scale?
+How does water molecules are self-assembled?
+Why Gold is better conductor than aluminum?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>How does the learner knows she or he has learned?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This is an approximation in hours of how much this task is going to take (or has taken)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Choose from:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 (Lowes priority)
+1 (Low priority)
+2 (High priority)
+3 (Highest priority)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">What tasks need to be done </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>before</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> starting (S) of </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>before</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> finishing (F) this one?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Example for Tsk10:
+Tsk1(S), Tsk6(F) 
+It means that task 1 needs to be done </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>before</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> starting task 10 and task 6 needs to be done </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>before</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> finishing task 10.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Include mm/dd.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+If you haven't started or finished include predicted dates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Percentage of task completion
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Complete Name of the team member responsible
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Paste an image or data
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(Text explaining is not acceptable)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>Include a color to each row</t>
   </si>
@@ -916,38 +920,52 @@
   </si>
   <si>
     <t>Tsk10</t>
+  </si>
+  <si>
+    <t>Graph acc</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>4/10-4/29</t>
+  </si>
+  <si>
+    <t>4/10-2/29</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Make slider work</t>
+  </si>
+  <si>
+    <t>Allow radial buttons and slider to input to graph</t>
+  </si>
+  <si>
+    <t>Take input from slider and button</t>
+  </si>
+  <si>
+    <t>Allow input to graph</t>
+  </si>
+  <si>
+    <t>Nelson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0%" numFmtId="165"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -978,7 +996,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -986,7 +1004,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -994,7 +1012,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1009,8 +1027,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1018,10 +1036,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1071,14 +1096,14 @@
     </fill>
   </fills>
   <borders count="10">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1093,223 +1118,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="3" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="4" fontId="6" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="5" fontId="5" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="6" fontId="7" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="5" fillId="3" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="5" fillId="5" fontId="5" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="5" fillId="4" fontId="6" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="5" fillId="6" fontId="7" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="7" fillId="2" fontId="0" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="7" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="9" fillId="3" fontId="4" numFmtId="164" xfId="21">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="9" fillId="4" fontId="6" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="9" fillId="6" fontId="7" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Bad" xfId="21"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Neutral" xfId="22"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Input" xfId="23"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Good" xfId="24"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1368,13 +1334,21 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3F3F76"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1388,9 +1362,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1402,7 +1376,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1427,9 +1401,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1441,7 +1415,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1466,9 +1440,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1480,7 +1454,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1505,9 +1479,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1519,7 +1493,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1544,9 +1518,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1558,7 +1532,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1583,9 +1557,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1597,7 +1571,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1622,9 +1596,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1636,7 +1610,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1661,9 +1635,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1675,7 +1649,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1700,9 +1674,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1714,7 +1688,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1739,9 +1713,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1753,7 +1727,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1778,9 +1752,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1792,7 +1766,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1817,9 +1791,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1831,7 +1805,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1856,9 +1830,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1870,7 +1844,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1895,9 +1869,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1909,7 +1883,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1934,9 +1908,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1948,7 +1922,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1973,9 +1947,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1987,7 +1961,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2012,9 +1986,9 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2026,7 +2000,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2051,21 +2025,21 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
+          <a:ext cx="4762290" cy="9359720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2090,21 +2064,21 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
+          <a:ext cx="4762290" cy="9359720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2129,21 +2103,21 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
+          <a:ext cx="4762290" cy="9359720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2168,21 +2142,21 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
+          <a:ext cx="4762290" cy="9359720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2207,21 +2181,21 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
+          <a:ext cx="4762290" cy="9359720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2246,21 +2220,21 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>342720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
+          <a:ext cx="4762290" cy="9359720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -2272,86 +2246,1792 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000749" y="11366500"/>
+          <a:ext cx="2016125" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="12112625"/>
+          <a:ext cx="2000250" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>365126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>587376</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>362542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="11715751"/>
+          <a:ext cx="1952626" cy="378416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="10969625"/>
+          <a:ext cx="2016125" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="12493625"/>
+          <a:ext cx="2016125" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="12874625"/>
+          <a:ext cx="2016125" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="I33" activeCellId="0" pane="topLeft" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.00510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8622448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.70918367346939"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="17"/>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="18"/>
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="19"/>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="20"/>
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="21"/>
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="8">
+    <row r="8" spans="1:12" ht="21" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2367,115 +4047,115 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="10">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:12" ht="30" customHeight="1">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="11">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="12">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:12" ht="30" customHeight="1">
+      <c r="A12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="13">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:12" ht="30" customHeight="1">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="I15" s="16"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="16">
+    <row r="16" spans="1:12" ht="21" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -2491,271 +4171,271 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="18">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19" t="n">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="27">
         <v>0</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="19">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:12" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19" t="n">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="27">
         <v>0.5</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="20">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:12" ht="30" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19" t="n">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="27">
         <v>0.3</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="21">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:12" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="18" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19" t="n">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="27">
         <v>0.7</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="22">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:12" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19" t="n">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="27">
         <v>0.8</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="23">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:12" ht="30" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19" t="n">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="27">
         <v>0</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="24">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:12" ht="30" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19" t="n">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="27">
         <v>0</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="25">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:12" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="18" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19" t="n">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="27">
         <v>0.5</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="26">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:12" ht="30" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="18" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19" t="n">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="27">
         <v>0.8</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="27">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:12" ht="30" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="18" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19" t="n">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="27">
         <v>0</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+    <row r="28" spans="1:12">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+    <row r="29" spans="1:12">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="30">
+    <row r="30" spans="1:12" ht="21" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
@@ -2771,137 +4451,137 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12" t="s">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12" t="s">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="12"/>
+      <c r="L31" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="32">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:12" ht="30" customHeight="1">
+      <c r="A32" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="15" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="33">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:12" ht="30" customHeight="1">
+      <c r="A33" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="23" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="34">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:12" ht="30" customHeight="1">
+      <c r="A34" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="35">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:12" ht="30" customHeight="1">
+      <c r="A35" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+    <row r="36" spans="1:12">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+    <row r="37" spans="1:12">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="38">
+    <row r="38" spans="1:12" ht="21" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>69</v>
       </c>
@@ -2917,210 +4597,380 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="A39" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="24" t="s">
+      <c r="I39" s="10"/>
+      <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="40">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:12" ht="30" customHeight="1">
+      <c r="A40" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
+      <c r="B40" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="24">
+        <v>2</v>
+      </c>
+      <c r="D40" s="24">
+        <v>8</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="41">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:12" ht="30" customHeight="1">
+      <c r="A41" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="B41" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="24">
+        <v>2</v>
+      </c>
+      <c r="D41" s="24">
+        <v>7</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="42">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:12" ht="30" customHeight="1">
+      <c r="A42" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
+      <c r="B42" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="24">
+        <v>2</v>
+      </c>
+      <c r="D42" s="24">
+        <v>8</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="43">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:12" ht="30" customHeight="1">
+      <c r="A43" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="B43" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="24">
+        <v>3</v>
+      </c>
+      <c r="D43" s="24">
+        <v>7</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="44">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:12" ht="30" customHeight="1">
+      <c r="A44" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
+      <c r="B44" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="26">
+        <v>2</v>
+      </c>
+      <c r="D44" s="26">
+        <v>9</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="45">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:12" ht="30" customHeight="1">
+      <c r="A45" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
+      <c r="B45" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="26">
+        <v>2</v>
+      </c>
+      <c r="D45" s="26">
+        <v>7</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="46">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:12" ht="30" customHeight="1">
+      <c r="A46" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="47">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:12" ht="30" customHeight="1">
+      <c r="A47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="48">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:12" ht="30" customHeight="1">
+      <c r="A48" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="49">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:12" ht="30" customHeight="1">
+      <c r="A49" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -3133,113 +4983,25 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="0" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team-Coordination_team18_sec005.xlsx
+++ b/Team-Coordination_team18_sec005.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\engr132\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16080"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Team18-April 22, 2014" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="F17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0">
+    <comment ref="J17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0">
+    <comment ref="G31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0">
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0">
+    <comment ref="K31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0">
+    <comment ref="D39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="E39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0">
+    <comment ref="F39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0">
+    <comment ref="G39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0">
+    <comment ref="H39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0">
+    <comment ref="J39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +664,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>Include a color to each row</t>
   </si>
@@ -922,44 +927,41 @@
     <t>Tsk10</t>
   </si>
   <si>
-    <t>Graph acc</t>
-  </si>
-  <si>
-    <t>Jake</t>
-  </si>
-  <si>
-    <t>4/10-4/29</t>
-  </si>
-  <si>
-    <t>4/10-2/29</t>
-  </si>
-  <si>
-    <t>Kurt</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>Make slider work</t>
-  </si>
-  <si>
-    <t>Allow radial buttons and slider to input to graph</t>
-  </si>
-  <si>
-    <t>Take input from slider and button</t>
-  </si>
-  <si>
-    <t>Allow input to graph</t>
-  </si>
-  <si>
-    <t>Nelson</t>
+    <t>Add names and headers to GUI</t>
+  </si>
+  <si>
+    <t>&lt; 1</t>
+  </si>
+  <si>
+    <t>Layouts must be finished for all guis</t>
+  </si>
+  <si>
+    <t>April 17 - April 18</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>The GUIs now have team member names on them as well as the project header at the beginning of the .m file.</t>
+  </si>
+  <si>
+    <t>All citations in APA format</t>
+  </si>
+  <si>
+    <t>Research should be done and pictures should be on GUI</t>
+  </si>
+  <si>
+    <t>Our citation page is in APA format and in-text citations are used.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1050,8 +1052,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,8 +1103,13 @@
         <bgColor rgb="FFDBEEF4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1204,42 +1218,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1265,14 +1288,64 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1344,908 +1417,19 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3419,232 +2603,47 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6000749" y="11366500"/>
-          <a:ext cx="2016125" cy="403225"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000750" y="12112625"/>
-          <a:ext cx="2000250" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>365126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>587376</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>362542</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5969000" y="11715751"/>
-          <a:ext cx="1952626" cy="378416"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000750" y="10969625"/>
-          <a:ext cx="2016125" cy="403225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000750" y="12493625"/>
-          <a:ext cx="2016125" cy="403225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000750" y="12874625"/>
-          <a:ext cx="2016125" cy="403225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3972,907 +2971,963 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:I47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="18"/>
-      <c r="B3" s="13" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="19"/>
-      <c r="B4" s="13" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="20"/>
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="22" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="22" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="7" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="27">
+      <c r="B18" s="22"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="14">
         <v>0</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="27">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="14">
         <v>0.5</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="27">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="14">
         <v>0.3</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="27">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="14">
         <v>0.7</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="27">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="14">
         <v>0.8</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="27">
+      <c r="B23" s="22"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="14">
         <v>0</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="27">
+      <c r="B24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="14">
         <v>0</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="27">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="14">
         <v>0.5</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="27">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="14">
         <v>0.8</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="27">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="14">
         <v>0</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="11" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="22" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="20"/>
+      <c r="G31" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="s">
+      <c r="J31" s="20"/>
+      <c r="K31" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="23" t="s">
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="24" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="18"/>
+      <c r="G32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="23" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="24" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="18"/>
+      <c r="G33" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
-      <c r="A35" s="23" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="22" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="1" t="s">
+      <c r="I39" s="20"/>
+      <c r="J39" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1">
-      <c r="A40" s="23" t="s">
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="31">
+        <v>1</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="31">
         <v>2</v>
       </c>
-      <c r="D40" s="24">
-        <v>8</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1">
-      <c r="A41" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="24">
-        <v>2</v>
-      </c>
-      <c r="D41" s="24">
-        <v>7</v>
-      </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="34"/>
+      <c r="L41" s="35"/>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1">
-      <c r="A42" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="24">
-        <v>2</v>
-      </c>
-      <c r="D42" s="24">
-        <v>8</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1">
-      <c r="A43" s="23" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="24">
-        <v>3</v>
-      </c>
-      <c r="D43" s="24">
-        <v>7</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1">
-      <c r="A44" s="23" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="26">
-        <v>2</v>
-      </c>
-      <c r="D44" s="26">
-        <v>9</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G44" s="30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="23" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="26">
-        <v>2</v>
-      </c>
-      <c r="D45" s="26">
-        <v>7</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G45" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1">
-      <c r="A46" s="23" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1">
-      <c r="A47" s="23" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1">
-      <c r="A48" s="23" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1">
-      <c r="A49" s="23" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="H49:I49"/>
@@ -4887,112 +3942,6 @@
     <mergeCell ref="J46:L46"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Team-Coordination_team18_sec005.xlsx
+++ b/Team-Coordination_team18_sec005.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16080"/>
+    <workbookView xWindow="2360" yWindow="3800" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Team18-April 22, 2014" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
   <si>
     <t>Include a color to each row</t>
   </si>
@@ -953,6 +953,57 @@
   </si>
   <si>
     <t>Nelson</t>
+  </si>
+  <si>
+    <t>Size of Nanoparticles</t>
+  </si>
+  <si>
+    <t>Chemical Property Changes</t>
+  </si>
+  <si>
+    <t>Carbon Fiber Strength</t>
+  </si>
+  <si>
+    <t>Cohesive Energy</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Ep = Eb * (1-d/D)</t>
+  </si>
+  <si>
+    <t>Material, radius</t>
+  </si>
+  <si>
+    <t>Plane, radius</t>
+  </si>
+  <si>
+    <t>Metal, Nanoparticle size</t>
+  </si>
+  <si>
+    <t>Mass = 4/3 pi * radius^3 *density, T1 = (Mass * Specific Heat * (melting point - temp1)) / power, T2 = Mass * Heat of Fusion / power, T3 = Mass * Specific Heat * (Temp2-melting point) / power</t>
+  </si>
+  <si>
+    <t>Mass, Time Intervals to be plotted</t>
+  </si>
+  <si>
+    <t>Simulation of plane's path</t>
+  </si>
+  <si>
+    <t>Cohesive energy of nanoparticles</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -1211,35 +1262,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1269,10 +1291,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1349,903 +1400,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10073880" cy="9524520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>342720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="4762290" cy="9359720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3427,8 +2581,8 @@
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3465,8 +2619,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -3504,7 +2658,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>587376</xdr:colOff>
+      <xdr:colOff>127001</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>362542</xdr:rowOff>
     </xdr:to>
@@ -3541,8 +2695,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
@@ -3579,8 +2733,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
@@ -3617,8 +2771,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
@@ -3645,6 +2799,57 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3977,902 +3182,1053 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:I47"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="18"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="19"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="20"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="22" t="s">
+      <c r="J9" s="22"/>
+      <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="B11" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="B12" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="B13" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="21" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="22" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="27">
+      <c r="B18" s="24"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="14">
         <v>0</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="27">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="14">
         <v>0.5</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="27">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="14">
         <v>0.3</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="27">
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="14">
         <v>0.7</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="27">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="14">
         <v>0.8</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="27">
+      <c r="B23" s="24"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="14">
         <v>0</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="27">
+      <c r="B24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="14">
         <v>0</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="27">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="14">
         <v>0.5</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="27">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="14">
         <v>0.8</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="27">
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="14">
         <v>0</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="22" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="24" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="18"/>
+      <c r="I32" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="24" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:12" ht="21" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="1" t="s">
+      <c r="I39" s="22"/>
+      <c r="J39" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="11">
         <v>2</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="11">
         <v>8</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="14">
         <v>0.05</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="11">
         <v>2</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="11">
         <v>7</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="14">
         <v>0.05</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="11">
         <v>2</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="11">
         <v>8</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="14">
         <v>0.05</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="11">
         <v>3</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="11">
         <v>7</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="14">
         <v>0.1</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="13">
         <v>2</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="13">
         <v>9</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="13">
         <v>2</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="13">
         <v>7</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="17">
         <v>0.1</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="H49:I49"/>
@@ -4887,112 +4243,6 @@
     <mergeCell ref="J46:L46"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Team-Coordination_team18_sec005.xlsx
+++ b/Team-Coordination_team18_sec005.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ENGR132\GitHub\engr132\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\engr132\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t>Include a color to each row</t>
   </si>
@@ -679,9 +679,6 @@
     <t>Wow factor (only use for exceptional cases where element was exceptionally addressed)</t>
   </si>
   <si>
-    <t>Technical Coordinator -Jake Hallow</t>
-  </si>
-  <si>
     <t>Simulation Name</t>
   </si>
   <si>
@@ -763,9 +760,6 @@
     <t>Cohesive energy of nanoparticles</t>
   </si>
   <si>
-    <t>Design Coordinator -Nelson Luehrs</t>
-  </si>
-  <si>
     <t>Usability</t>
   </si>
   <si>
@@ -859,9 +853,6 @@
     <t>Not sure about this one, either</t>
   </si>
   <si>
-    <t>Evan Widloski – Educational Coordinator</t>
-  </si>
-  <si>
     <t>Learning Objective: The learner will be able to…</t>
   </si>
   <si>
@@ -955,9 +946,6 @@
     <t>How can the properties of increased bond strength be applied to everyday situations?</t>
   </si>
   <si>
-    <t>Team-Collaboration Coordinator -Kurt Sermersheim</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -1024,9 +1012,6 @@
     <t>Tsk6</t>
   </si>
   <si>
-    <t>Allow input to graph</t>
-  </si>
-  <si>
     <t>Nelson</t>
   </si>
   <si>
@@ -1045,18 +1030,6 @@
     <t>Next Round:</t>
   </si>
   <si>
-    <t>Jake Hallow - Design</t>
-  </si>
-  <si>
-    <t>Nelson Luehrs - Educational</t>
-  </si>
-  <si>
-    <t>Evan Widloski - Collaboration</t>
-  </si>
-  <si>
-    <t>Kurt Sermersheim - Technical</t>
-  </si>
-  <si>
     <t>Add names and header template to guis</t>
   </si>
   <si>
@@ -1067,13 +1040,49 @@
   </si>
   <si>
     <t>Evan, Jake, Kurt, and Nelson</t>
+  </si>
+  <si>
+    <t>Technical Coordinator -Kurt Sermersheim</t>
+  </si>
+  <si>
+    <t>Design Coordinator -Jake Hallow</t>
+  </si>
+  <si>
+    <t>Educational Coordinator - Evan Widloski</t>
+  </si>
+  <si>
+    <t>Team-Collaboration Coordinator -Nelson Luehrs</t>
+  </si>
+  <si>
+    <t>Jake Hallow - Education</t>
+  </si>
+  <si>
+    <t>Nelson Luehrs - Collaboration</t>
+  </si>
+  <si>
+    <t>Evan Widloski - Technical</t>
+  </si>
+  <si>
+    <t>Kurt Sermersheim - Design</t>
+  </si>
+  <si>
+    <t>Allow input be calculated</t>
+  </si>
+  <si>
+    <t>Develop Scenario more in-depth</t>
+  </si>
+  <si>
+    <t>4/24-present</t>
+  </si>
+  <si>
+    <t>Everybody</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1178,8 +1187,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,6 +1263,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -1360,46 +1381,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1434,20 +1425,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1470,12 +1449,8 @@
     <xf numFmtId="9" fontId="12" fillId="11" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
     <xf numFmtId="9" fontId="13" fillId="12" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1485,10 +1460,77 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="9" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="9" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
@@ -2830,6 +2872,1110 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 36"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 24"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3101,8 +4247,8 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,1073 +4261,1084 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="A8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="22" t="s">
+      <c r="L9" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="41" t="s">
+      <c r="L10" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54" t="s">
+      <c r="H11" s="53"/>
+      <c r="I11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54" t="s">
+      <c r="J11" s="53"/>
+      <c r="K11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54" t="s">
+      <c r="J12" s="53"/>
+      <c r="K12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54" t="s">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>23</v>
+      <c r="J13" s="53"/>
+      <c r="K13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="A16" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="J17" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="26">
+      <c r="A18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="13">
         <v>0</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="9" t="s">
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J20" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="26">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="13">
         <v>0.7</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="J21" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="9" t="s">
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="26">
+      <c r="A23" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="13">
         <v>0</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="26">
+      <c r="A24" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="13">
         <v>0</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="26">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="13">
         <v>0.5</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="J25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="26">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="13">
         <v>0.8</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="J26" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="26">
+      <c r="A27" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="13">
         <v>0</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="A30" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="22" t="s">
+      <c r="H31" s="40"/>
+      <c r="I31" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="J31" s="40"/>
+      <c r="K31" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="1:12" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="F32" s="45"/>
+      <c r="G32" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="28" t="s">
+      <c r="H32" s="46"/>
+      <c r="I32" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="J32" s="45"/>
+      <c r="K32" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="43"/>
+      <c r="G33" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="30" t="s">
+      <c r="H33" s="44"/>
+      <c r="I33" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="F34" s="43"/>
+      <c r="G34" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="30" t="s">
+      <c r="H34" s="44"/>
+      <c r="I34" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
     </row>
     <row r="35" spans="1:12" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="F35" s="45"/>
+      <c r="G35" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="28" t="s">
+      <c r="H35" s="46"/>
+      <c r="I35" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
+      <c r="A38" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="F39" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="G39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="37">
+      <c r="A40" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="57">
         <v>2</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="57">
         <v>8</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="27">
+        <v>2</v>
+      </c>
+      <c r="D41" s="27">
+        <v>7</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="46">
-        <v>2</v>
-      </c>
-      <c r="D41" s="46">
-        <v>7</v>
-      </c>
-      <c r="E41" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
+      <c r="F41" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="46">
+      <c r="A42" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="33">
         <v>2</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="33">
         <v>8</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
+      <c r="E42" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="63">
+        <v>1</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="37">
+      <c r="A43" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="57">
         <v>3</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="57">
         <v>7</v>
       </c>
-      <c r="E43" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
+      <c r="E43" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="61">
+        <v>0.35</v>
+      </c>
+      <c r="H43" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="49">
+      <c r="A44" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="29">
         <v>2</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="29">
         <v>9</v>
       </c>
-      <c r="E44" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
+      <c r="E44" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="42">
+      <c r="A45" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="25">
         <v>2</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="25">
         <v>7</v>
       </c>
-      <c r="E45" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
+      <c r="E45" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="42">
+      <c r="C46" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="23">
         <v>6</v>
       </c>
-      <c r="E46" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="43">
-        <v>0.75</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
+      <c r="E46" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="24">
+        <v>1</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="58">
+        <v>5</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="A48" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="A49" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
+      <c r="B52" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
+      <c r="B53" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
+      <c r="B54" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="B55" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
+      <c r="B56" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -4194,61 +5351,64 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Team-Coordination_team18_sec005.xlsx
+++ b/Team-Coordination_team18_sec005.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\engr132\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="940"/>
   </bookViews>
   <sheets>
     <sheet name="Team18-April 22, 2014" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment ref="A31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
+    <comment ref="D31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0">
+    <comment ref="G31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0" shapeId="0">
+    <comment ref="K31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
+    <comment ref="C39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0">
+    <comment ref="E39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0">
+    <comment ref="F39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0" shapeId="0">
+    <comment ref="G39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0">
+    <comment ref="H39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0">
+    <comment ref="J39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1460,44 +1460,26 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="9" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="14" fillId="13" borderId="9" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1506,25 +1488,43 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
-    <xf numFmtId="9" fontId="14" fillId="13" borderId="9" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
-    <xf numFmtId="9" fontId="14" fillId="13" borderId="9" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3976,6 +3976,1294 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 36"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 24"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4022,7 +5310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4057,7 +5345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4234,7 +5522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4242,25 +5530,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="8.85546875"/>
-    <col min="4" max="4" width="9.5703125"/>
-    <col min="5" max="10" width="8.85546875"/>
-    <col min="11" max="11" width="14.85546875"/>
-    <col min="12" max="1025" width="8.85546875"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4268,81 +5549,81 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="7"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="8"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="A8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="9" t="s">
         <v>10</v>
       </c>
@@ -4350,23 +5631,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="22" t="s">
         <v>15</v>
       </c>
@@ -4374,27 +5655,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53" t="s">
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="53"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="22" t="s">
         <v>15</v>
       </c>
@@ -4402,25 +5683,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53" t="s">
+      <c r="H12" s="45"/>
+      <c r="I12" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="53"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="22" t="s">
         <v>15</v>
       </c>
@@ -4428,27 +5709,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53" t="s">
+      <c r="H13" s="45"/>
+      <c r="I13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="53"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="22" t="s">
         <v>15</v>
       </c>
@@ -4456,7 +5737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -4467,272 +5748,272 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:12" ht="21" customHeight="1">
+      <c r="A16" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40" t="s">
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+        <v>0.47</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="49"/>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="13">
         <v>0.5</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+    <row r="20" spans="1:12" ht="30" customHeight="1">
+      <c r="A20" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="35" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="J20" s="48" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
     </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="49"/>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="35" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="J21" s="48" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
     </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:12" ht="30" customHeight="1">
+      <c r="A22" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="35" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="13">
         <v>0.8</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:12" ht="30" customHeight="1">
+      <c r="A23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+        <v>0.33</v>
+      </c>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+    <row r="24" spans="1:12" ht="30" customHeight="1">
+      <c r="A24" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="49" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="49"/>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="35" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
       <c r="I25" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="48" t="s">
+        <v>0.65</v>
+      </c>
+      <c r="J25" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:12" ht="30" customHeight="1">
+      <c r="A26" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="35" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
       <c r="I26" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="J26" s="48" t="s">
+        <v>0.95</v>
+      </c>
+      <c r="J26" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
     </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+    <row r="27" spans="1:12" ht="30" customHeight="1">
+      <c r="A27" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="35" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+        <v>0.25</v>
+      </c>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4743,7 +6024,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -4754,155 +6035,155 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:12" ht="28" customHeight="1">
+      <c r="A30" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
     </row>
-    <row r="31" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+    <row r="31" spans="1:12" ht="38.25" customHeight="1">
+      <c r="A31" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40" t="s">
+      <c r="F31" s="43"/>
+      <c r="G31" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40" t="s">
+      <c r="H31" s="43"/>
+      <c r="I31" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40" t="s">
+      <c r="J31" s="43"/>
+      <c r="K31" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="40"/>
+      <c r="L31" s="43"/>
     </row>
-    <row r="32" spans="1:12" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="71.75" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46" t="s">
+      <c r="F32" s="52"/>
+      <c r="G32" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="45" t="s">
+      <c r="H32" s="53"/>
+      <c r="I32" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45" t="s">
+      <c r="J32" s="52"/>
+      <c r="K32" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="45"/>
+      <c r="L32" s="52"/>
     </row>
-    <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="57.75" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44" t="s">
+      <c r="F33" s="54"/>
+      <c r="G33" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="44"/>
-      <c r="I33" s="43" t="s">
+      <c r="H33" s="55"/>
+      <c r="I33" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
     </row>
-    <row r="34" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="65.25" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44" t="s">
+      <c r="F34" s="54"/>
+      <c r="G34" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="43" t="s">
+      <c r="H34" s="55"/>
+      <c r="I34" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
     </row>
-    <row r="35" spans="1:12" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="71.75" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="45" t="s">
+      <c r="H35" s="53"/>
+      <c r="I35" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4913,7 +6194,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -4924,23 +6205,23 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:12" ht="21" customHeight="1">
+      <c r="A38" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>95</v>
       </c>
@@ -4962,45 +6243,45 @@
       <c r="G39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41" t="s">
+      <c r="I39" s="43"/>
+      <c r="J39" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
     </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+    <row r="40" spans="1:12" ht="30" customHeight="1">
+      <c r="A40" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="35">
         <v>2</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="35">
         <v>8</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57" t="s">
+      <c r="E40" s="35"/>
+      <c r="F40" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="38">
         <v>0.2</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>106</v>
       </c>
@@ -5022,15 +6303,15 @@
       <c r="G41" s="28">
         <v>0.2</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
     </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>107</v>
       </c>
@@ -5049,48 +6330,48 @@
       <c r="F42" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="39">
         <v>1</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
     </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+    <row r="43" spans="1:12" ht="30" customHeight="1">
+      <c r="A43" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="35">
         <v>3</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="35">
         <v>7</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="61">
+      <c r="G43" s="38">
         <v>0.35</v>
       </c>
-      <c r="H43" s="62" t="s">
+      <c r="H43" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
     </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="19" t="s">
         <v>114</v>
       </c>
@@ -5112,15 +6393,15 @@
       <c r="G44" s="30">
         <v>0.75</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="32" t="s">
         <v>116</v>
       </c>
@@ -5142,15 +6423,15 @@
       <c r="G45" s="24">
         <v>0.9</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
     </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="A46" s="21" t="s">
         <v>118</v>
       </c>
@@ -5172,45 +6453,45 @@
       <c r="G46" s="24">
         <v>1</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
     </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
+    <row r="47" spans="1:12" ht="30" customHeight="1">
+      <c r="A47" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="36">
         <v>1.5</v>
       </c>
-      <c r="D47" s="58">
+      <c r="D47" s="36">
         <v>5</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E47" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G47" s="59">
+      <c r="G47" s="37">
         <v>0.3</v>
       </c>
-      <c r="H47" s="60" t="s">
+      <c r="H47" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
     </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="30" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>120</v>
       </c>
@@ -5220,13 +6501,13 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
     </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="30" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>121</v>
       </c>
@@ -5236,64 +6517,157 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="36" t="s">
+    <row r="52" spans="1:12">
+      <c r="B52" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="36" t="s">
+    <row r="53" spans="1:12">
+      <c r="B53" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
+    <row r="54" spans="1:12">
+      <c r="B54" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="36" t="s">
+    <row r="55" spans="1:12">
+      <c r="B55" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="36" t="s">
+    <row r="56" spans="1:12">
+      <c r="B56" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -5306,113 +6680,25 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team-Coordination_team18_sec005.xlsx
+++ b/Team-Coordination_team18_sec005.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\engr132\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14445" tabRatio="940"/>
   </bookViews>
   <sheets>
     <sheet name="Team18-April 22, 2014" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="F17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0">
+    <comment ref="J17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0">
+    <comment ref="G31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0">
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0">
+    <comment ref="K31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0">
+    <comment ref="D39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="E39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0">
+    <comment ref="F39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0">
+    <comment ref="G39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0">
+    <comment ref="H39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -627,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0">
+    <comment ref="J39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,15 +1047,9 @@
     <t>Evan, Jake, Kurt, and Nelson</t>
   </si>
   <si>
-    <t>Technical Coordinator -Kurt Sermersheim</t>
-  </si>
-  <si>
     <t>Design Coordinator -Jake Hallow</t>
   </si>
   <si>
-    <t>Educational Coordinator - Evan Widloski</t>
-  </si>
-  <si>
     <t>Team-Collaboration Coordinator -Nelson Luehrs</t>
   </si>
   <si>
@@ -1076,6 +1075,12 @@
   </si>
   <si>
     <t>Everybody</t>
+  </si>
+  <si>
+    <t>Technical Coordinator - Evan Widloski</t>
+  </si>
+  <si>
+    <t>Educational Coordinator -Kurt Sermersheim</t>
   </si>
 </sst>
 </file>
@@ -1474,58 +1479,58 @@
     <xf numFmtId="9" fontId="11" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -5261,6 +5266,1110 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="AutoShape 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="AutoShape 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="AutoShape 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="AutoShape 36"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="AutoShape 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="AutoShape 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="AutoShape 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1024" name="AutoShape 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 24"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="AutoShape 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1031" name="AutoShape 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1033" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1035" name="AutoShape 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="AutoShape 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1039" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1041" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1043" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1045" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1047" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1049" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5522,7 +6631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5530,18 +6639,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5549,81 +6658,81 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="9" t="s">
         <v>10</v>
       </c>
@@ -5631,23 +6740,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22" t="s">
         <v>15</v>
       </c>
@@ -5655,27 +6764,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45" t="s">
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45" t="s">
+      <c r="H11" s="51"/>
+      <c r="I11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22" t="s">
         <v>15</v>
       </c>
@@ -5683,25 +6792,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="51"/>
+      <c r="I12" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="45"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22" t="s">
         <v>15</v>
       </c>
@@ -5709,27 +6818,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45" t="s">
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45" t="s">
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="45"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22" t="s">
         <v>15</v>
       </c>
@@ -5737,7 +6846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -5748,272 +6857,272 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1">
-      <c r="A16" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="13">
         <v>0.47</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="13">
         <v>0.5</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48" t="s">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="13">
         <v>0.75</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
     </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="13">
         <v>0.9</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
     </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="51" t="s">
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="13">
         <v>0.8</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="13">
         <v>0.33</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
     </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="13">
         <v>0.25</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
     </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="13">
         <v>0.65</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
     </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="51" t="s">
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="13">
         <v>0.95</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
     </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="13">
         <v>0.25</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6024,7 +7133,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6035,155 +7144,155 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="28" customHeight="1">
-      <c r="A30" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+    <row r="30" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
     </row>
-    <row r="31" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A31" s="43" t="s">
+    <row r="31" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43" t="s">
+      <c r="F31" s="48"/>
+      <c r="G31" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43" t="s">
+      <c r="H31" s="48"/>
+      <c r="I31" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43" t="s">
+      <c r="J31" s="48"/>
+      <c r="K31" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="43"/>
+      <c r="L31" s="48"/>
     </row>
-    <row r="32" spans="1:12" ht="71.75" customHeight="1">
+    <row r="32" spans="1:12" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53" t="s">
+      <c r="F32" s="54"/>
+      <c r="G32" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="52" t="s">
+      <c r="H32" s="55"/>
+      <c r="I32" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52" t="s">
+      <c r="J32" s="54"/>
+      <c r="K32" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="52"/>
+      <c r="L32" s="54"/>
     </row>
-    <row r="33" spans="1:12" ht="57.75" customHeight="1">
+    <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="54"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="53"/>
+      <c r="I33" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
     </row>
-    <row r="34" spans="1:12" ht="65.25" customHeight="1">
+    <row r="34" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55" t="s">
+      <c r="F34" s="52"/>
+      <c r="G34" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="54" t="s">
+      <c r="H34" s="53"/>
+      <c r="I34" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
     </row>
-    <row r="35" spans="1:12" ht="71.75" customHeight="1">
+    <row r="35" spans="1:12" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53" t="s">
+      <c r="F35" s="54"/>
+      <c r="G35" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="52" t="s">
+      <c r="H35" s="55"/>
+      <c r="I35" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6194,7 +7303,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -6205,23 +7314,23 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1">
-      <c r="A38" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>95</v>
       </c>
@@ -6243,17 +7352,17 @@
       <c r="G39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="56" t="s">
+      <c r="I39" s="48"/>
+      <c r="J39" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1">
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
         <v>102</v>
       </c>
@@ -6273,15 +7382,15 @@
       <c r="G40" s="38">
         <v>0.2</v>
       </c>
-      <c r="H40" s="57" t="s">
+      <c r="H40" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1">
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>106</v>
       </c>
@@ -6303,15 +7412,15 @@
       <c r="G41" s="28">
         <v>0.2</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
     </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1">
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>107</v>
       </c>
@@ -6333,15 +7442,15 @@
       <c r="G42" s="39">
         <v>1</v>
       </c>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
     </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1">
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
         <v>111</v>
       </c>
@@ -6363,15 +7472,15 @@
       <c r="G43" s="38">
         <v>0.35</v>
       </c>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
     </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1">
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>114</v>
       </c>
@@ -6393,20 +7502,20 @@
       <c r="G44" s="30">
         <v>0.75</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>116</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" s="25">
         <v>2</v>
@@ -6423,15 +7532,15 @@
       <c r="G45" s="24">
         <v>0.9</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
     </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1">
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>118</v>
       </c>
@@ -6453,20 +7562,20 @@
       <c r="G46" s="24">
         <v>1</v>
       </c>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
     </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1">
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>119</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C47" s="36">
         <v>1.5</v>
@@ -6478,20 +7587,20 @@
         <v>14</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G47" s="37">
         <v>0.3</v>
       </c>
-      <c r="H47" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
+      <c r="H47" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
     </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1">
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>120</v>
       </c>
@@ -6501,13 +7610,13 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
     </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1">
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>121</v>
       </c>
@@ -6517,112 +7626,109 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
     </row>
-    <row r="52" spans="1:12">
-      <c r="B52" s="63" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
     </row>
-    <row r="53" spans="1:12">
-      <c r="B53" s="63" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
     </row>
-    <row r="54" spans="1:12">
-      <c r="B54" s="63" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="B55" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="B56" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -6635,61 +7741,64 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Team-Coordination_team18_sec005.xlsx
+++ b/Team-Coordination_team18_sec005.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\engr132\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14445" tabRatio="940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="940"/>
   </bookViews>
   <sheets>
     <sheet name="Team18-April 22, 2014" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
+    <comment ref="A31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0" shapeId="0">
+    <comment ref="D31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -321,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0">
+    <comment ref="G31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0" shapeId="0">
+    <comment ref="K31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0">
+    <comment ref="C39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0">
+    <comment ref="E39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0">
+    <comment ref="F39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0" shapeId="0">
+    <comment ref="G39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -616,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0">
+    <comment ref="H39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="0" shapeId="0">
+    <comment ref="J39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1047,12 +1042,6 @@
     <t>Evan, Jake, Kurt, and Nelson</t>
   </si>
   <si>
-    <t>Design Coordinator -Jake Hallow</t>
-  </si>
-  <si>
-    <t>Team-Collaboration Coordinator -Nelson Luehrs</t>
-  </si>
-  <si>
     <t>Jake Hallow - Education</t>
   </si>
   <si>
@@ -1077,17 +1066,23 @@
     <t>Everybody</t>
   </si>
   <si>
-    <t>Technical Coordinator - Evan Widloski</t>
-  </si>
-  <si>
-    <t>Educational Coordinator -Kurt Sermersheim</t>
+    <t>Technical Coordinator - Nelson Luerhs</t>
+  </si>
+  <si>
+    <t>Design Coordinator -Evan Widloski</t>
+  </si>
+  <si>
+    <t>Educational Coordinator -Jake Hallow</t>
+  </si>
+  <si>
+    <t>Team-Collaboration Coordinator -Kurt Sermersheim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1178,29 +1173,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1245,34 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3DEB3D"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8D00"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -1386,15 +1333,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1417,126 +1361,70 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="11" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
-    <xf numFmtId="9" fontId="14" fillId="13" borderId="9" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="14" fillId="13" borderId="9" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Input" xfId="5" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -6370,6 +6258,1294 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1051" name="AutoShape 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1053" name="AutoShape 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1055" name="AutoShape 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1057" name="AutoShape 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1059" name="AutoShape 38"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1061" name="AutoShape 36"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1063" name="AutoShape 34"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1065" name="AutoShape 32"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1067" name="AutoShape 30"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1069" name="AutoShape 28"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1071" name="AutoShape 26"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1072" name="AutoShape 24"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1073" name="AutoShape 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1074" name="AutoShape 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1075" name="AutoShape 18"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1076" name="AutoShape 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1077" name="AutoShape 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1078" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1079" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1080" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1081" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1082" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1083" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6631,7 +7807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6639,18 +7815,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:L30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6658,81 +7834,81 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="6"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="7"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="8"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="9" t="s">
         <v>10</v>
       </c>
@@ -6740,113 +7916,113 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:12" ht="30" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="22" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="51" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="22" t="s">
+      <c r="J11" s="28"/>
+      <c r="K11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:12" ht="30" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="51" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="22" t="s">
+      <c r="J12" s="28"/>
+      <c r="K12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:12" ht="30" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="51" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="22" t="s">
+      <c r="J13" s="28"/>
+      <c r="K13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -6857,272 +8033,272 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+    <row r="16" spans="1:12" ht="21" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="13">
-        <v>0.47</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:12" ht="30" customHeight="1">
+      <c r="A19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="41" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:12" ht="30" customHeight="1">
+      <c r="A20" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="41" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="J20" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:12" ht="30" customHeight="1">
+      <c r="A21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="41" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="J21" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
     </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:12" ht="30" customHeight="1">
+      <c r="A22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="41" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:12" ht="30" customHeight="1">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:12" ht="30" customHeight="1">
+      <c r="A24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
     </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+    <row r="25" spans="1:12" ht="30" customHeight="1">
+      <c r="A25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="41" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="13">
-        <v>0.65</v>
-      </c>
-      <c r="J25" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:12" ht="30" customHeight="1">
+      <c r="A26" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="41" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="J26" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:12" ht="30" customHeight="1">
+      <c r="A27" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="41" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -7133,7 +8309,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -7144,155 +8320,155 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
+    <row r="30" spans="1:12" ht="28" customHeight="1">
+      <c r="A30" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:12" ht="38.25" customHeight="1">
+      <c r="A31" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48" t="s">
+      <c r="H31" s="26"/>
+      <c r="I31" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48" t="s">
+      <c r="J31" s="26"/>
+      <c r="K31" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="48"/>
+      <c r="L31" s="26"/>
     </row>
-    <row r="32" spans="1:12" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:12" ht="71.75" customHeight="1">
+      <c r="A32" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="54" t="s">
+      <c r="H32" s="22"/>
+      <c r="I32" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54" t="s">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="54"/>
+      <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:12" ht="57.75" customHeight="1">
+      <c r="A33" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="52" t="s">
+      <c r="H33" s="22"/>
+      <c r="I33" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:12" ht="65.25" customHeight="1">
+      <c r="A34" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="52" t="s">
+      <c r="H34" s="22"/>
+      <c r="I34" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="71.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:12" ht="71.75" customHeight="1">
+      <c r="A35" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="54" t="s">
+      <c r="H35" s="22"/>
+      <c r="I35" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -7303,7 +8479,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -7314,23 +8490,23 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
+    <row r="38" spans="1:12" ht="21" customHeight="1">
+      <c r="A38" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>95</v>
       </c>
@@ -7340,267 +8516,267 @@
       <c r="C39" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49" t="s">
+      <c r="I39" s="26"/>
+      <c r="J39" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
     </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+    <row r="40" spans="1:12" ht="30" customHeight="1">
+      <c r="A40" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="37">
         <v>2</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="37">
         <v>8</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35" t="s">
+      <c r="E40" s="37"/>
+      <c r="F40" s="37" t="s">
         <v>104</v>
       </c>
       <c r="G40" s="38">
         <v>0.2</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
     </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+    <row r="41" spans="1:12" ht="30" customHeight="1">
+      <c r="A41" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="21">
         <v>2</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="21">
         <v>7</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="19">
         <v>0.2</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
     </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:12" ht="30" customHeight="1">
+      <c r="A42" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="21">
         <v>2</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="21">
         <v>8</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="19">
         <v>1</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
     </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+    <row r="43" spans="1:12" ht="30" customHeight="1">
+      <c r="A43" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="37">
         <v>3</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="37">
         <v>7</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="37" t="s">
         <v>104</v>
       </c>
       <c r="G43" s="38">
         <v>0.35</v>
       </c>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
     </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+    <row r="44" spans="1:12" ht="30" customHeight="1">
+      <c r="A44" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="20">
         <v>2</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="20">
         <v>9</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="17">
         <v>0.75</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+    <row r="45" spans="1:12" ht="30" customHeight="1">
+      <c r="A45" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="20">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <v>7</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1">
+      <c r="A46" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="20">
+        <v>6</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1">
+      <c r="A47" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="40">
+        <v>5</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="25">
-        <v>2</v>
-      </c>
-      <c r="D45" s="25">
-        <v>7</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="H45" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
+      <c r="G47" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
     </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="23">
-        <v>6</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="24">
-        <v>1</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="36">
-        <v>1.5</v>
-      </c>
-      <c r="D47" s="36">
-        <v>5</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="30" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>120</v>
       </c>
@@ -7610,13 +8786,13 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
     </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="30" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>121</v>
       </c>
@@ -7626,64 +8802,137 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
+    <row r="52" spans="1:12">
+      <c r="B52" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="42" t="s">
+    <row r="53" spans="1:12">
+      <c r="B53" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="42" t="s">
+    <row r="56" spans="1:12">
+      <c r="B56" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
+  <mergeCells count="105">
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -7696,109 +8945,16 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
